--- a/数据整理/stocks/A股/上证主板/603612-索通发展.xlsx
+++ b/数据整理/stocks/A股/上证主板/603612-索通发展.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.06</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.91</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007013</t>
+          <t>008128</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>湘财长顺混合C</t>
+          <t>湘财长源股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.53</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.37</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008128</t>
+          <t>007013</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>湘财长源股票A</t>
+          <t>湘财长顺混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.99</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.06</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009169</t>
+          <t>000594</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>湘财长兴灵活配置混合A</t>
+          <t>大摩进取优选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72.38</t>
+          <t>24.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2740</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009170</t>
+          <t>007012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>湘财长兴灵活配置混合C</t>
+          <t>湘财长顺混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>72.38</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010076</t>
+          <t>008128</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>湘财长弘灵活配置混合A</t>
+          <t>湘财长源股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010077</t>
+          <t>001696</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>湘财长弘灵活配置混合C</t>
+          <t>南方智造未来股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000594</t>
+          <t>007013</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大摩进取优选股票</t>
+          <t>湘财长顺混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -818,26 +938,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007012</t>
+          <t>009169</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>湘财长顺混合A</t>
+          <t>湘财长兴灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -846,26 +976,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007013</t>
+          <t>008129</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>湘财长顺混合C</t>
+          <t>湘财长源股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001696</t>
+          <t>010076</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方智造未来股票</t>
+          <t>湘财长弘灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>83.42</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008128</t>
+          <t>009170</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>湘财长源股票A</t>
+          <t>湘财长兴灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008129</t>
+          <t>010077</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>湘财长源股票C</t>
+          <t>湘财长弘灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603612-索通发展.xlsx
+++ b/数据整理/stocks/A股/上证主板/603612-索通发展.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7285</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4446</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>45.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603612-索通发展.xlsx
+++ b/数据整理/stocks/A股/上证主板/603612-索通发展.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1486,4 +1487,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6807</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6607</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4473</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603612-索通发展.xlsx
+++ b/数据整理/stocks/A股/上证主板/603612-索通发展.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1961,4 +1962,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603612-索通发展.xlsx
+++ b/数据整理/stocks/A股/上证主板/603612-索通发展.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1970,7 +1971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,17 +1982,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2001,14 +2022,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.25</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -2017,14 +2112,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="4">
@@ -2033,14 +2128,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.58</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="5">
@@ -2049,13 +2144,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603612-索通发展.xlsx
+++ b/数据整理/stocks/A股/上证主板/603612-索通发展.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2065,7 +2066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,17 +2077,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2096,14 +2117,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4114</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2112,14 +2155,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.25</v>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3688</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2128,14 +2193,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.02</v>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3443</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2144,14 +2231,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.58</v>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3160</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2160,13 +2269,471 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603612-索通发展.xlsx
+++ b/数据整理/stocks/A股/上证主板/603612-索通发展.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2616,7 +2617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2627,17 +2628,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2647,14 +2668,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.95</v>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7978</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2663,14 +2706,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0241</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2679,14 +2744,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.25</v>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2695,14 +2782,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.02</v>
+          <t>014057</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8758</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2711,14 +2820,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.58</v>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8442</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2727,13 +2858,1395 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>013960</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6833</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6216</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5378</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5294</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5142</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5131</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4161</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2379</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012631</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014260</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013961</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014058</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603612-索通发展.xlsx
+++ b/数据整理/stocks/A股/上证主板/603612-索通发展.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>11.62</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>1.95</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2.25</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>1.58</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -600,6 +617,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2687</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014057</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5988</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014058</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河定投宝腾讯济安指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014692</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015157</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014691</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2095,7 +2700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2645,7 +3250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2739,7 +3344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3213,7 +3818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3573,7 +4178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4009,7 +4614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603612-索通发展.xlsx
+++ b/数据整理/stocks/A股/上证主板/603612-索通发展.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>2.67</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>11.62</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>1.95</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2.25</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>1.58</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -616,7 +633,1485 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1527</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8701</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5648</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014057</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5436</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4309</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3585</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014058</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001420</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方大数据300指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014692</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001426</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方大数据300指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015157</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014691</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1204,7 +2699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2700,7 +4195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3250,7 +4745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3344,7 +4839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3818,7 +5313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4178,7 +5673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4612,250 +6107,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007012</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湘财长顺混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0688</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008128</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>湘财长源股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0455</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001267</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰达宏利蓝筹价值混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0336</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007013</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>湘财长顺混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008129</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>湘财长源股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>